--- a/biology/Zoologie/Hippopotamyrus/Hippopotamyrus.xlsx
+++ b/biology/Zoologie/Hippopotamyrus/Hippopotamyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippopotamyrus est un genre de poissons de la famille des Mormyridés. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 mars 2024) :
 Hippopotamyrus ansorgii (Boulenger, 1905)
 Hippopotamyrus castor Pappenheim, 1906
 Hippopotamyrus grahami (Norman, 1928)
@@ -552,10 +566,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Hippopotamyrus Pappenheim (d), 1906[1],[2].
-Hippopotamyrus a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Hippopotamyrus Pappenheim (d), 1906,.
+Hippopotamyrus a pour synonymes :
 Hyppopotamyrus
 Paramyomyrus Pellegrin, 1927</t>
         </is>
@@ -585,7 +601,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) P. Pappenheim, « Neue und ungenügend bekannte elektrische Fische (Fam. Mormyridae) aus den deutsch-afrikanischen Schutzgebieten », Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1906,‎ 1906, p. 260–264 (ISSN 0037-5942, DOI 10.5962/BHL.PART.20868, lire en ligne)</t>
         </is>
